--- a/data/trans_bre/P15-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P15-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 2,0</t>
+          <t>-5,54; 1,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 1,65</t>
+          <t>-6,4; 1,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 4,39</t>
+          <t>-2,31; 4,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,95</t>
+          <t>-2,07; 2,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-60,64; 41,52</t>
+          <t>-61,74; 32,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,61; 34,97</t>
+          <t>-65,99; 30,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,94; 120,69</t>
+          <t>-37,79; 126,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,08; 90,87</t>
+          <t>-33,26; 90,57</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,97; -0,74</t>
+          <t>-7,55; -0,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 4,47</t>
+          <t>-3,73; 4,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 5,09</t>
+          <t>-2,08; 4,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,6</t>
+          <t>-2,53; 3,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,23; -5,18</t>
+          <t>-79,98; -12,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,39; 77,13</t>
+          <t>-40,28; 72,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,19; 168,02</t>
+          <t>-38,07; 165,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,27; 94,39</t>
+          <t>-34,56; 91,29</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,98; -1,71</t>
+          <t>-8,99; -2,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 1,01</t>
+          <t>-6,8; 0,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 5,0</t>
+          <t>-3,88; 5,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 8,45</t>
+          <t>-1,86; 8,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-87,79; -15,74</t>
+          <t>-88,95; -22,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,39; 16,74</t>
+          <t>-64,26; 12,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-57,05; 108,07</t>
+          <t>-56,44; 105,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,77; 394,23</t>
+          <t>-26,34; 309,95</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 1,51</t>
+          <t>-2,97; 1,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,36</t>
+          <t>-4,3; 0,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1,69</t>
+          <t>-2,27; 1,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 1,0</t>
+          <t>-4,49; 1,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,58; 27,22</t>
+          <t>-38,0; 28,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,54; 5,87</t>
+          <t>-46,12; 6,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,69; 40,14</t>
+          <t>-37,99; 37,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,71; 17,69</t>
+          <t>-59,86; 19,25</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 3,74</t>
+          <t>-2,95; 3,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 3,05</t>
+          <t>-3,64; 2,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 1,21</t>
+          <t>-3,72; 1,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 1,3</t>
+          <t>-5,58; 1,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-36,13; 88,58</t>
+          <t>-36,75; 84,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,17; 54,39</t>
+          <t>-36,65; 52,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,34; 23,6</t>
+          <t>-45,94; 30,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-50,13; 21,16</t>
+          <t>-51,47; 21,15</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,71; -1,47</t>
+          <t>-9,24; -1,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 1,52</t>
+          <t>-6,42; 1,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,12; -1,11</t>
+          <t>-9,54; -1,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 4,66</t>
+          <t>-5,95; 5,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,25; -20,46</t>
+          <t>-67,26; -20,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,0; 21,77</t>
+          <t>-46,5; 22,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-65,38; -14,54</t>
+          <t>-66,96; -13,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-54,63; 230,19</t>
+          <t>-55,52; 299,37</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; -1,06</t>
+          <t>-3,47; -1,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 0,08</t>
+          <t>-2,4; 0,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,65</t>
+          <t>-1,62; 0,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,56</t>
+          <t>-1,49; 1,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-41,49; -15,35</t>
+          <t>-43,1; -15,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 0,76</t>
+          <t>-26,75; 2,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 12,15</t>
+          <t>-25,07; 11,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 32,31</t>
+          <t>-22,29; 30,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P15-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
